--- a/Työkirja1.xlsx
+++ b/Työkirja1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livepkky-my.sharepoint.com/personal/volodymyr_getalo_edu_riveria_fi/Documents/Ohjelmointi/vakioveikkaus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Riveria\vakioveikkaus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7690C6AA-E5CC-4785-9280-526C5C140700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="1350" windowWidth="25725" windowHeight="18405" xr2:uid="{3D99128A-A152-4798-9D06-F6575D6A3C47}"/>
+    <workbookView xWindow="17625" yWindow="1350" windowWidth="25725" windowHeight="18405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="doc file" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,16 +37,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>oli</t>
+  </si>
+  <si>
+    <t>nyt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +60,28 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,18 +89,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,10 +455,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4EF672-ED41-40EE-BAEF-612C3B9742F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -468,7 +511,7 @@
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C17" si="1">C4+1</f>
+        <f t="shared" ref="C5:C15" si="1">C4+1</f>
         <v>3</v>
       </c>
       <c r="D5" s="1">
@@ -640,4 +683,7522 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4/C4</f>
+        <v>1.4</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G4">
+        <f>F4/2</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O119" sqref="O119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <f t="shared" ref="C1:M1" si="0">B1+1</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E1" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F1" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G1" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H1" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I1" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J1" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K1" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L1" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M1" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4" t="str">
+        <f ca="1">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f t="shared" ref="B2:M17" ca="1" si="1">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f ca="1">RANDBETWEEN(2, 6)</f>
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <f ca="1">RANDBETWEEN(1, 10 - O2 - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f ca="1">10 - O2 - P2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:M34" ca="1" si="2">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>X</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O14" ca="1" si="3">RANDBETWEEN(2, 6)</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P14" ca="1" si="4">RANDBETWEEN(1, 10 - O3 - 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q14" ca="1" si="5">10 - O3 - P3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T7" t="e">
+        <f>пу</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="N9" s="2">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="M28" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="M32" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="H33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="M33" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="M34" s="4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="str">
+        <f t="shared" ref="A35:M66" ca="1" si="6">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="K35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M35" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="K37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M37" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M40" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="J43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="K43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M45" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="K46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M46" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M48" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="M50" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M51" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="I53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="L53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M53" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <f t="shared" ref="B54:M117" ca="1" si="7">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K54" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M54" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4" t="str">
+        <f t="shared" ref="A55:A118" ca="1" si="8">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M55" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M56" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M57" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M58" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="H59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M59" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="H60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M60" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M61" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M62" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M63" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="M64" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="J65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M65" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M66" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M67" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="H69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M69" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M70" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="H71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M71" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M73" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="L74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="I75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L75" s="4" t="str">
+        <f t="shared" ref="B75:M129" ca="1" si="9">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="M75" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M76" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M77" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M78" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M79" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="K80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M80" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="I81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M81" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M82" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="K83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M83" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M84" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M85" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M86" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="F87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M87" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M88" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M89" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="K90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M90" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="I91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M91" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M92" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="F93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="I93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M93" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M94" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="L95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M95" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="M96" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f t="shared" ref="B97:M129" ca="1" si="10">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M97" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M98" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M99" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M100" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M101" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M102" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="G103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M103" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M104" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M105" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M106" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M107" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M108" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M109" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M110" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="I111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M111" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M112" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M113" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M114" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M115" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M116" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="C117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="D117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="K117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="L117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="M117" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="4" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <f t="shared" ref="B118:M129" ca="1" si="11">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M118" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="4" t="str">
+        <f t="shared" ref="A119:A129" ca="1" si="12">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>2</v>
+      </c>
+      <c r="B119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="C119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="F119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="I119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M119" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="K120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="M120" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="D121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="K121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="L121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M121" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="K122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="L122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M122" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>X</v>
+      </c>
+      <c r="B123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="M123" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="K124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="L124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M124" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="J125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="M125" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="L126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M126" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="C127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="I127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="K127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M127" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="H128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="K128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="L128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="M128" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="4" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="D129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="F129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="I129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M129" s="4" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="2">
+        <f ca="1">COUNTIF(A$2:A$129, "1")</f>
+        <v>81</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" ref="B131:M131" ca="1" si="13">COUNTIF(B$2:B$129, "1")</f>
+        <v>36</v>
+      </c>
+      <c r="C131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>77</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="H131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="I131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="K131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="L131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>58</v>
+      </c>
+      <c r="M131" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="2">
+        <f ca="1">COUNTIF(A$2:A$129, "X")</f>
+        <v>16</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" ref="B132:M132" ca="1" si="14">COUNTIF(B$2:B$129, "X")</f>
+        <v>10</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="H132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="I132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="K132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="L132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="M132" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="2">
+        <f ca="1">COUNTIF(A$2:A$129, "2")</f>
+        <v>31</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" ref="B133:M133" ca="1" si="15">COUNTIF(B$2:B$129, "2")</f>
+        <v>82</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="H133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="I133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>57</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="K133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="L133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="M133" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Työkirja1.xlsx
+++ b/Työkirja1.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Riveria\vakioveikkaus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livepkky-my.sharepoint.com/personal/volodymyr_getalo_edu_riveria_fi/Documents/Ohjelmointi/vakioveikkaus/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_4DD26D4E145D196F9AE22120FAB8FBC867BFD8E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2266C01E-BDA4-480A-BD70-3E8F0E2D9D91}"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="1350" windowWidth="25725" windowHeight="18405" activeTab="2"/>
+    <workbookView xWindow="17790" yWindow="1365" windowWidth="25725" windowHeight="18405" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="doc file" sheetId="3" r:id="rId3"/>
+    <sheet name="Taul2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -124,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,7 +457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -686,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -850,14 +852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O119" sqref="O119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -931,11 +933,11 @@
       </c>
       <c r="B2" s="4" t="str">
         <f t="shared" ref="B2:M17" ca="1" si="1">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -951,7 +953,7 @@
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -963,7 +965,7 @@
       </c>
       <c r="J2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -975,18 +977,18 @@
       </c>
       <c r="M2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(2, 6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <f ca="1">RANDBETWEEN(1, 10 - O2 - 1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <f ca="1">10 - O2 - P2</f>
@@ -996,15 +998,15 @@
     <row r="3" spans="1:20">
       <c r="A3" s="4" t="str">
         <f t="shared" ref="A3:M34" ca="1" si="2">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1016,11 +1018,11 @@
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1032,15 +1034,15 @@
       </c>
       <c r="J3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1055,29 +1057,29 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P14" ca="1" si="4">RANDBETWEEN(1, 10 - O3 - 1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q14" ca="1" si="5">10 - O3 - P3</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1085,7 +1087,7 @@
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1093,11 +1095,11 @@
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1113,14 +1115,14 @@
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="N4" s="2">
         <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="4"/>
@@ -1128,21 +1130,21 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1150,23 +1152,23 @@
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1174,26 +1176,26 @@
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="5"/>
@@ -1203,7 +1205,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1211,11 +1213,11 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1227,11 +1229,11 @@
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1239,11 +1241,11 @@
       </c>
       <c r="J6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1251,36 +1253,36 @@
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>5</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1288,7 +1290,7 @@
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1296,11 +1298,11 @@
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1308,26 +1310,26 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="N7" s="2">
         <v>6</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="4"/>
@@ -1335,7 +1337,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" t="e">
         <f>пу</f>
@@ -1345,19 +1347,19 @@
     <row r="8" spans="1:20">
       <c r="A8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1369,11 +1371,11 @@
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1381,7 +1383,7 @@
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1389,22 +1391,22 @@
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <v>7</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="5"/>
@@ -1422,7 +1424,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1430,7 +1432,7 @@
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1446,11 +1448,11 @@
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1458,26 +1460,26 @@
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="N9" s="2">
         <v>8</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1487,11 +1489,11 @@
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1507,15 +1509,15 @@
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1523,36 +1525,36 @@
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="N10" s="2">
         <v>9</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1564,15 +1566,15 @@
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1580,42 +1582,42 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="N11" s="2">
         <v>10</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1625,7 +1627,7 @@
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1645,7 +1647,7 @@
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1653,15 +1655,15 @@
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1676,25 +1678,25 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1706,7 +1708,7 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1714,7 +1716,7 @@
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1726,30 +1728,30 @@
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="N13" s="2">
         <v>12</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="5"/>
@@ -1759,19 +1761,19 @@
     <row r="14" spans="1:20">
       <c r="A14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1787,7 +1789,7 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1795,11 +1797,11 @@
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1807,22 +1809,22 @@
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="2">
         <v>13</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1836,19 +1838,19 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1860,19 +1862,19 @@
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1886,11 +1888,11 @@
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1902,23 +1904,23 @@
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1926,11 +1928,11 @@
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1940,11 +1942,11 @@
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1952,27 +1954,27 @@
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1994,11 +1996,11 @@
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2010,11 +2012,11 @@
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2030,15 +2032,15 @@
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2064,7 +2066,7 @@
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2072,7 +2074,7 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2084,15 +2086,15 @@
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2106,11 +2108,11 @@
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2122,19 +2124,19 @@
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2142,33 +2144,33 @@
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2176,7 +2178,7 @@
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2184,7 +2186,7 @@
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2192,11 +2194,11 @@
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2206,31 +2208,31 @@
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2238,53 +2240,53 @@
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2296,7 +2298,7 @@
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2304,21 +2306,21 @@
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2326,15 +2328,15 @@
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2342,15 +2344,15 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2358,21 +2360,21 @@
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2384,7 +2386,7 @@
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2400,11 +2402,11 @@
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2416,17 +2418,17 @@
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2434,7 +2436,7 @@
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2442,7 +2444,7 @@
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2454,11 +2456,11 @@
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2466,11 +2468,11 @@
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2484,15 +2486,15 @@
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2500,11 +2502,11 @@
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2512,19 +2514,19 @@
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2534,15 +2536,15 @@
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2554,7 +2556,7 @@
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2562,7 +2564,7 @@
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2574,11 +2576,11 @@
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2588,11 +2590,11 @@
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2600,11 +2602,11 @@
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2612,7 +2614,7 @@
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2628,25 +2630,25 @@
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2654,27 +2656,27 @@
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2686,41 +2688,41 @@
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2740,7 +2742,7 @@
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2758,7 +2760,7 @@
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2766,7 +2768,7 @@
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2782,7 +2784,7 @@
       </c>
       <c r="J32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2790,7 +2792,7 @@
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2800,7 +2802,7 @@
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2808,31 +2810,31 @@
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2844,29 +2846,29 @@
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2874,7 +2876,7 @@
       </c>
       <c r="F34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2882,7 +2884,7 @@
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2890,7 +2892,7 @@
       </c>
       <c r="J34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2898,21 +2900,21 @@
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="str">
-        <f t="shared" ref="A35:M66" ca="1" si="6">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <f t="shared" ref="A35:M54" ca="1" si="6">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
         <v>1</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2920,7 +2922,7 @@
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2932,11 +2934,11 @@
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2944,7 +2946,7 @@
       </c>
       <c r="J35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2952,37 +2954,37 @@
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2994,11 +2996,11 @@
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3006,11 +3008,11 @@
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3020,23 +3022,23 @@
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3044,7 +3046,7 @@
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3052,7 +3054,7 @@
       </c>
       <c r="J37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3060,11 +3062,11 @@
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3078,7 +3080,7 @@
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3086,19 +3088,19 @@
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3106,7 +3108,7 @@
       </c>
       <c r="J38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3118,13 +3120,13 @@
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3132,11 +3134,11 @@
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3148,15 +3150,15 @@
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3164,7 +3166,7 @@
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3172,25 +3174,25 @@
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3202,7 +3204,7 @@
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3214,7 +3216,7 @@
       </c>
       <c r="J40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3222,17 +3224,17 @@
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3248,11 +3250,11 @@
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3260,7 +3262,7 @@
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3268,19 +3270,19 @@
       </c>
       <c r="J41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3290,7 +3292,7 @@
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3298,27 +3300,27 @@
       </c>
       <c r="D42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="F42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3330,11 +3332,11 @@
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3352,19 +3354,19 @@
       </c>
       <c r="D43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3372,7 +3374,7 @@
       </c>
       <c r="I43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3384,21 +3386,21 @@
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3410,11 +3412,11 @@
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3426,23 +3428,23 @@
       </c>
       <c r="I44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3456,23 +3458,23 @@
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3480,15 +3482,15 @@
       </c>
       <c r="I45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3496,41 +3498,41 @@
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3542,33 +3544,33 @@
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3584,7 +3586,7 @@
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3592,19 +3594,19 @@
       </c>
       <c r="J47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3614,11 +3616,11 @@
       </c>
       <c r="B48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3630,15 +3632,15 @@
       </c>
       <c r="F48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3650,7 +3652,7 @@
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3658,7 +3660,7 @@
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3668,7 +3670,7 @@
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3676,15 +3678,15 @@
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3692,11 +3694,11 @@
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3704,7 +3706,7 @@
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3718,11 +3720,11 @@
     <row r="50" spans="1:13">
       <c r="A50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3730,15 +3732,15 @@
       </c>
       <c r="D50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3746,7 +3748,7 @@
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3754,7 +3756,7 @@
       </c>
       <c r="J50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3762,7 +3764,7 @@
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3772,7 +3774,7 @@
     <row r="51" spans="1:13">
       <c r="A51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3780,7 +3782,7 @@
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3796,7 +3798,7 @@
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3804,11 +3806,11 @@
       </c>
       <c r="I51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3816,11 +3818,11 @@
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3834,7 +3836,7 @@
       </c>
       <c r="C52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3842,7 +3844,7 @@
       </c>
       <c r="E52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3850,19 +3852,19 @@
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3870,7 +3872,7 @@
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3880,51 +3882,51 @@
     <row r="53" spans="1:13">
       <c r="A53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="F53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3934,11 +3936,11 @@
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3950,7 +3952,7 @@
       </c>
       <c r="E54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3958,19 +3960,19 @@
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f t="shared" ref="B54:M117" ca="1" si="7">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>2</v>
+        <f t="shared" ref="B54:M75" ca="1" si="7">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>1</v>
       </c>
       <c r="J54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3978,21 +3980,21 @@
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4" t="str">
         <f t="shared" ref="A55:A118" ca="1" si="8">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4008,7 +4010,7 @@
       </c>
       <c r="F55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4016,11 +4018,11 @@
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4028,15 +4030,15 @@
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4058,19 +4060,19 @@
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4086,29 +4088,29 @@
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4116,7 +4118,7 @@
       </c>
       <c r="F57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4128,11 +4130,11 @@
       </c>
       <c r="I57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4144,7 +4146,7 @@
       </c>
       <c r="M57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4158,11 +4160,11 @@
       </c>
       <c r="C58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4170,7 +4172,7 @@
       </c>
       <c r="F58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4178,7 +4180,7 @@
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4186,11 +4188,11 @@
       </c>
       <c r="J58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4204,23 +4206,23 @@
     <row r="59" spans="1:13">
       <c r="A59" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4228,7 +4230,7 @@
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4240,11 +4242,11 @@
       </c>
       <c r="J59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4266,7 +4268,7 @@
       </c>
       <c r="C60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4282,23 +4284,23 @@
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4306,21 +4308,21 @@
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4332,11 +4334,11 @@
       </c>
       <c r="F61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4356,25 +4358,25 @@
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4390,27 +4392,27 @@
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4424,23 +4426,23 @@
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4448,19 +4450,19 @@
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4468,13 +4470,13 @@
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4486,7 +4488,7 @@
       </c>
       <c r="D64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4494,11 +4496,11 @@
       </c>
       <c r="F64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4506,29 +4508,29 @@
       </c>
       <c r="I64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4536,7 +4538,7 @@
       </c>
       <c r="C65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4544,7 +4546,7 @@
       </c>
       <c r="E65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4552,7 +4554,7 @@
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4560,41 +4562,41 @@
       </c>
       <c r="I65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4602,41 +4604,41 @@
       </c>
       <c r="F66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4644,31 +4646,31 @@
       </c>
       <c r="C67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4676,11 +4678,11 @@
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4690,27 +4692,27 @@
     <row r="68" spans="1:13">
       <c r="A68" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4718,19 +4720,19 @@
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4738,45 +4740,45 @@
       </c>
       <c r="M68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4792,21 +4794,21 @@
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4814,11 +4816,11 @@
       </c>
       <c r="E70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4834,7 +4836,7 @@
       </c>
       <c r="J70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4842,21 +4844,21 @@
       </c>
       <c r="L70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4864,11 +4866,11 @@
       </c>
       <c r="D71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4876,15 +4878,15 @@
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4892,11 +4894,11 @@
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4906,15 +4908,15 @@
     <row r="72" spans="1:13">
       <c r="A72" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4926,27 +4928,27 @@
       </c>
       <c r="F72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4960,15 +4962,15 @@
     <row r="73" spans="1:13">
       <c r="A73" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4976,11 +4978,11 @@
       </c>
       <c r="E73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4988,15 +4990,15 @@
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5008,25 +5010,25 @@
       </c>
       <c r="M73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5034,7 +5036,7 @@
       </c>
       <c r="F74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5042,27 +5044,27 @@
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5072,19 +5074,19 @@
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5092,7 +5094,7 @@
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5100,19 +5102,19 @@
       </c>
       <c r="I75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L75" s="4" t="str">
-        <f t="shared" ref="B75:M129" ca="1" si="9">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>2</v>
+        <f t="shared" ref="B75:M97" ca="1" si="9">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>1</v>
       </c>
       <c r="M75" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5122,7 +5124,7 @@
     <row r="76" spans="1:13">
       <c r="A76" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5130,15 +5132,15 @@
       </c>
       <c r="C76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5146,11 +5148,11 @@
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5158,11 +5160,11 @@
       </c>
       <c r="J76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5180,7 +5182,7 @@
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5188,15 +5190,15 @@
       </c>
       <c r="D77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5204,7 +5206,7 @@
       </c>
       <c r="H77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5212,37 +5214,37 @@
       </c>
       <c r="J77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5250,7 +5252,7 @@
       </c>
       <c r="F78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5262,7 +5264,7 @@
       </c>
       <c r="I78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5270,7 +5272,7 @@
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5278,25 +5280,25 @@
       </c>
       <c r="M78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5304,15 +5306,15 @@
       </c>
       <c r="F79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5324,37 +5326,37 @@
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5362,15 +5364,15 @@
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5378,7 +5380,7 @@
       </c>
       <c r="K80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5396,7 +5398,7 @@
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5404,15 +5406,15 @@
       </c>
       <c r="D81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5424,19 +5426,19 @@
       </c>
       <c r="I81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5450,11 +5452,11 @@
       </c>
       <c r="B82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5462,27 +5464,27 @@
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5500,15 +5502,15 @@
     <row r="83" spans="1:13">
       <c r="A83" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5524,7 +5526,7 @@
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5548,41 +5550,41 @@
       </c>
       <c r="M83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5590,19 +5592,19 @@
       </c>
       <c r="J84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -5612,11 +5614,11 @@
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5628,7 +5630,7 @@
       </c>
       <c r="F85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5636,7 +5638,7 @@
       </c>
       <c r="H85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5644,15 +5646,15 @@
       </c>
       <c r="J85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5666,15 +5668,15 @@
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5682,11 +5684,11 @@
       </c>
       <c r="F86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5698,19 +5700,19 @@
       </c>
       <c r="J86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -5720,11 +5722,11 @@
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5732,7 +5734,7 @@
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5744,19 +5746,19 @@
       </c>
       <c r="H87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5774,7 +5776,7 @@
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5782,7 +5784,7 @@
       </c>
       <c r="D88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5798,7 +5800,7 @@
       </c>
       <c r="H88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5814,17 +5816,17 @@
       </c>
       <c r="L88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5836,7 +5838,7 @@
       </c>
       <c r="D89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5844,7 +5846,7 @@
       </c>
       <c r="F89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5852,19 +5854,19 @@
       </c>
       <c r="H89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5872,21 +5874,21 @@
       </c>
       <c r="M89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5894,15 +5896,15 @@
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5922,17 +5924,17 @@
       </c>
       <c r="L90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5948,19 +5950,19 @@
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="F91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5976,11 +5978,11 @@
       </c>
       <c r="L91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5990,7 +5992,7 @@
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5998,11 +6000,11 @@
       </c>
       <c r="D92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6018,7 +6020,7 @@
       </c>
       <c r="I92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6026,15 +6028,15 @@
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -6044,11 +6046,11 @@
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6056,7 +6058,7 @@
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6068,15 +6070,15 @@
       </c>
       <c r="H93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6088,13 +6090,13 @@
       </c>
       <c r="M93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6102,7 +6104,7 @@
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6110,15 +6112,15 @@
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6130,7 +6132,7 @@
       </c>
       <c r="J94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6160,7 +6162,7 @@
       </c>
       <c r="D95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6172,7 +6174,7 @@
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6180,7 +6182,7 @@
       </c>
       <c r="I95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6188,11 +6190,11 @@
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6202,7 +6204,7 @@
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6210,35 +6212,35 @@
       </c>
       <c r="C96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6246,33 +6248,33 @@
       </c>
       <c r="L96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C97" s="4" t="str">
-        <f t="shared" ref="B97:M129" ca="1" si="10">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>2</v>
+        <f t="shared" ref="B97:M118" ca="1" si="10">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
+        <v>X</v>
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6280,11 +6282,11 @@
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6300,7 +6302,7 @@
       </c>
       <c r="L97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6310,7 +6312,7 @@
     <row r="98" spans="1:13">
       <c r="A98" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6322,11 +6324,11 @@
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6338,7 +6340,7 @@
       </c>
       <c r="H98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6346,7 +6348,7 @@
       </c>
       <c r="J98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6354,7 +6356,7 @@
       </c>
       <c r="L98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6364,15 +6366,15 @@
     <row r="99" spans="1:13">
       <c r="A99" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6380,7 +6382,7 @@
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6392,7 +6394,7 @@
       </c>
       <c r="H99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6404,7 +6406,7 @@
       </c>
       <c r="K99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6426,15 +6428,15 @@
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6446,7 +6448,7 @@
       </c>
       <c r="H100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6454,11 +6456,11 @@
       </c>
       <c r="J100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6466,13 +6468,13 @@
       </c>
       <c r="M100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6488,7 +6490,7 @@
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6496,7 +6498,7 @@
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6512,21 +6514,21 @@
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6534,11 +6536,11 @@
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6546,45 +6548,45 @@
       </c>
       <c r="F102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6592,7 +6594,7 @@
       </c>
       <c r="D103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6600,23 +6602,23 @@
       </c>
       <c r="F103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6628,13 +6630,13 @@
       </c>
       <c r="M103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6646,11 +6648,11 @@
       </c>
       <c r="D104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6662,27 +6664,27 @@
       </c>
       <c r="H104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -6692,7 +6694,7 @@
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6700,11 +6702,11 @@
       </c>
       <c r="D105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6712,11 +6714,11 @@
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6724,41 +6726,41 @@
       </c>
       <c r="J105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6770,7 +6772,7 @@
       </c>
       <c r="H106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6778,25 +6780,25 @@
       </c>
       <c r="J106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6812,15 +6814,15 @@
       </c>
       <c r="E107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6828,19 +6830,19 @@
       </c>
       <c r="I107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6858,7 +6860,7 @@
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6870,15 +6872,15 @@
       </c>
       <c r="F108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6886,11 +6888,11 @@
       </c>
       <c r="J108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6904,11 +6906,11 @@
     <row r="109" spans="1:13">
       <c r="A109" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6916,15 +6918,15 @@
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6940,19 +6942,19 @@
       </c>
       <c r="J109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -6962,11 +6964,11 @@
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6974,11 +6976,11 @@
       </c>
       <c r="E110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6994,15 +6996,15 @@
       </c>
       <c r="J110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7020,11 +7022,11 @@
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7032,7 +7034,7 @@
       </c>
       <c r="F111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7040,57 +7042,57 @@
       </c>
       <c r="H111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7106,11 +7108,11 @@
       </c>
       <c r="K112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7120,31 +7122,31 @@
     <row r="113" spans="1:13">
       <c r="A113" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7156,7 +7158,7 @@
       </c>
       <c r="J113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7164,7 +7166,7 @@
       </c>
       <c r="L113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7174,7 +7176,7 @@
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7182,7 +7184,7 @@
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7190,19 +7192,19 @@
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7218,7 +7220,7 @@
       </c>
       <c r="L114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7240,7 +7242,7 @@
       </c>
       <c r="D115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7252,11 +7254,11 @@
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7264,15 +7266,15 @@
       </c>
       <c r="J115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7290,19 +7292,19 @@
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7314,7 +7316,7 @@
       </c>
       <c r="I116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7322,29 +7324,29 @@
       </c>
       <c r="K116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7352,7 +7354,7 @@
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7368,41 +7370,41 @@
       </c>
       <c r="I117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7414,15 +7416,15 @@
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7430,29 +7432,29 @@
       </c>
       <c r="K118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="4" t="str">
         <f t="shared" ref="A119:A129" ca="1" si="12">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7460,19 +7462,19 @@
       </c>
       <c r="E119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7480,33 +7482,33 @@
       </c>
       <c r="J119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7518,15 +7520,15 @@
       </c>
       <c r="F120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7538,15 +7540,15 @@
       </c>
       <c r="K120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -7556,7 +7558,7 @@
       </c>
       <c r="B121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7568,7 +7570,7 @@
       </c>
       <c r="E121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7576,15 +7578,15 @@
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7592,15 +7594,15 @@
       </c>
       <c r="K121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -7610,15 +7612,15 @@
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7626,19 +7628,19 @@
       </c>
       <c r="F122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7654,13 +7656,13 @@
       </c>
       <c r="M122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7672,7 +7674,7 @@
       </c>
       <c r="D123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7680,7 +7682,7 @@
       </c>
       <c r="F123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7688,7 +7690,7 @@
       </c>
       <c r="H123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7696,7 +7698,7 @@
       </c>
       <c r="J123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7704,7 +7706,7 @@
       </c>
       <c r="L123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7722,39 +7724,39 @@
       </c>
       <c r="C124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7762,7 +7764,7 @@
       </c>
       <c r="M124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -7772,19 +7774,19 @@
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7792,7 +7794,7 @@
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7804,29 +7806,29 @@
       </c>
       <c r="J125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7834,7 +7836,7 @@
       </c>
       <c r="D126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7842,7 +7844,7 @@
       </c>
       <c r="F126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7862,7 +7864,7 @@
       </c>
       <c r="K126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7870,41 +7872,41 @@
       </c>
       <c r="M126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7912,15 +7914,15 @@
       </c>
       <c r="J127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7930,23 +7932,23 @@
     <row r="128" spans="1:13">
       <c r="A128" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7954,7 +7956,7 @@
       </c>
       <c r="G128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7962,7 +7964,7 @@
       </c>
       <c r="I128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7970,15 +7972,15 @@
       </c>
       <c r="K128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -7988,11 +7990,11 @@
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -8000,7 +8002,7 @@
       </c>
       <c r="E129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -8012,7 +8014,7 @@
       </c>
       <c r="H129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -8020,7 +8022,7 @@
       </c>
       <c r="J129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -8038,65 +8040,65 @@
     <row r="131" spans="1:13">
       <c r="A131" s="2">
         <f ca="1">COUNTIF(A$2:A$129, "1")</f>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:M131" ca="1" si="13">COUNTIF(B$2:B$129, "1")</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="M131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="2">
         <f ca="1">COUNTIF(A$2:A$129, "X")</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B132" s="2">
         <f t="shared" ref="B132:M132" ca="1" si="14">COUNTIF(B$2:B$129, "X")</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -8104,69 +8106,69 @@
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="2">
         <f ca="1">COUNTIF(A$2:A$129, "2")</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" ref="B133:M133" ca="1" si="15">COUNTIF(B$2:B$129, "2")</f>
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8174,31 +8176,303 @@
       </c>
       <c r="H133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F724C74-DD46-4DCC-AF5A-F8F926BD9338}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Työkirja1.xlsx
+++ b/Työkirja1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livepkky-my.sharepoint.com/personal/volodymyr_getalo_edu_riveria_fi/Documents/Ohjelmointi/vakioveikkaus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_4DD26D4E145D196F9AE22120FAB8FBC867BFD8E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2266C01E-BDA4-480A-BD70-3E8F0E2D9D91}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_4DD26D4E145D196F9AE22120FAB8FBC867BFD8E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAAEE39-DE89-4D10-809D-A9D20D6EF1F5}"/>
   <bookViews>
-    <workbookView xWindow="17790" yWindow="1365" windowWidth="25725" windowHeight="18405" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17790" yWindow="1365" windowWidth="25725" windowHeight="18405" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="doc file" sheetId="3" r:id="rId3"/>
     <sheet name="Taul2" sheetId="4" r:id="rId4"/>
+    <sheet name="Taul3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -139,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,7 +861,7 @@
   <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O119" sqref="O119"/>
+      <selection activeCell="M130" sqref="M130:M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -929,7 +934,7 @@
     <row r="2" spans="1:20">
       <c r="A2" s="4" t="str">
         <f ca="1">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="str">
         <f t="shared" ref="B2:M17" ca="1" si="1">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
@@ -937,7 +942,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -945,15 +950,15 @@
       </c>
       <c r="E2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -977,7 +982,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -998,15 +1003,15 @@
     <row r="3" spans="1:20">
       <c r="A3" s="4" t="str">
         <f t="shared" ref="A3:M34" ca="1" si="2">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1014,7 +1019,7 @@
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1022,11 +1027,11 @@
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1042,7 +1047,7 @@
       </c>
       <c r="L3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1053,15 +1058,15 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O14" ca="1" si="3">RANDBETWEEN(2, 6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P14" ca="1" si="4">RANDBETWEEN(1, 10 - O3 - 1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q14" ca="1" si="5">10 - O3 - P3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1071,7 +1076,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1079,7 +1084,7 @@
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1087,27 +1092,27 @@
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1115,18 +1120,18 @@
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2">
         <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="5"/>
@@ -1136,35 +1141,35 @@
     <row r="5" spans="1:20">
       <c r="A5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1180,22 +1185,22 @@
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="5"/>
@@ -1205,11 +1210,11 @@
     <row r="6" spans="1:20">
       <c r="A6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1217,15 +1222,15 @@
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1233,7 +1238,7 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1245,7 +1250,7 @@
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1253,7 +1258,7 @@
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2">
         <v>5</v>
@@ -1274,19 +1279,19 @@
     <row r="7" spans="1:20">
       <c r="A7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1298,15 +1303,15 @@
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1314,30 +1319,30 @@
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="N7" s="2">
         <v>6</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="e">
         <f>пу</f>
@@ -1351,23 +1356,23 @@
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1375,19 +1380,19 @@
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1402,21 +1407,21 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1424,15 +1429,15 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1440,7 +1445,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1448,15 +1453,15 @@
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1464,36 +1469,36 @@
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>8</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1505,15 +1510,15 @@
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1525,40 +1530,40 @@
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="N10" s="2">
         <v>9</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1566,23 +1571,23 @@
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1602,18 +1607,18 @@
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>10</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="5"/>
@@ -1623,7 +1628,7 @@
     <row r="12" spans="1:20">
       <c r="A12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1631,19 +1636,19 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1655,19 +1660,19 @@
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1682,11 +1687,11 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1700,7 +1705,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1708,7 +1713,7 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1716,7 +1721,7 @@
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1732,7 +1737,7 @@
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1740,14 +1745,14 @@
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>12</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="4"/>
@@ -1755,13 +1760,13 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1769,23 +1774,23 @@
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1793,11 +1798,11 @@
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1805,7 +1810,7 @@
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1816,15 +1821,15 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1842,7 +1847,7 @@
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1850,19 +1855,19 @@
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1870,11 +1875,11 @@
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1888,7 +1893,7 @@
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1908,15 +1913,15 @@
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1924,53 +1929,53 @@
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1978,29 +1983,29 @@
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2012,7 +2017,7 @@
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2020,11 +2025,11 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2032,21 +2037,21 @@
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2062,7 +2067,7 @@
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2070,11 +2075,11 @@
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2082,7 +2087,7 @@
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2090,11 +2095,11 @@
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2104,7 +2109,7 @@
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2116,15 +2121,15 @@
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2132,19 +2137,19 @@
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2154,15 +2159,15 @@
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2170,19 +2175,19 @@
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2190,11 +2195,11 @@
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2202,7 +2207,7 @@
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2212,11 +2217,11 @@
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2224,15 +2229,15 @@
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2244,29 +2249,29 @@
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2274,7 +2279,7 @@
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2286,7 +2291,7 @@
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2294,19 +2299,19 @@
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2316,15 +2321,15 @@
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2336,19 +2341,19 @@
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2356,49 +2361,49 @@
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2410,25 +2415,25 @@
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2436,7 +2441,7 @@
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2444,23 +2449,23 @@
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2468,17 +2473,17 @@
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2486,7 +2491,7 @@
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2494,11 +2499,11 @@
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2506,11 +2511,11 @@
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2548,7 +2553,7 @@
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2560,7 +2565,7 @@
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2572,37 +2577,37 @@
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2622,7 +2627,7 @@
       </c>
       <c r="J29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2630,29 +2635,29 @@
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2664,27 +2669,27 @@
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2694,15 +2699,15 @@
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2710,11 +2715,11 @@
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2722,15 +2727,15 @@
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2738,21 +2743,21 @@
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2760,11 +2765,11 @@
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2772,15 +2777,15 @@
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2792,7 +2797,7 @@
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2802,15 +2807,15 @@
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2818,19 +2823,19 @@
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2842,11 +2847,11 @@
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2856,15 +2861,15 @@
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2872,7 +2877,7 @@
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2896,33 +2901,33 @@
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="str">
         <f t="shared" ref="A35:M54" ca="1" si="6">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2930,7 +2935,7 @@
       </c>
       <c r="F35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2938,27 +2943,27 @@
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2968,7 +2973,7 @@
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2976,19 +2981,19 @@
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2996,7 +3001,7 @@
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3004,11 +3009,11 @@
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3022,39 +3027,39 @@
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3062,11 +3067,11 @@
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3076,15 +3081,15 @@
       </c>
       <c r="B38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3092,15 +3097,15 @@
       </c>
       <c r="F38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3108,15 +3113,15 @@
       </c>
       <c r="J38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3130,11 +3135,11 @@
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3142,15 +3147,15 @@
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3162,7 +3167,7 @@
       </c>
       <c r="J39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3170,25 +3175,25 @@
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3196,23 +3201,23 @@
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3220,7 +3225,7 @@
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3234,7 +3239,7 @@
     <row r="41" spans="1:13">
       <c r="A41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3242,7 +3247,7 @@
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3254,19 +3259,19 @@
       </c>
       <c r="F41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3282,21 +3287,21 @@
       </c>
       <c r="M41" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3304,31 +3309,31 @@
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3336,25 +3341,25 @@
       </c>
       <c r="M42" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3366,7 +3371,7 @@
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3374,45 +3379,45 @@
       </c>
       <c r="I43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M43" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3424,7 +3429,7 @@
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3440,11 +3445,11 @@
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3454,39 +3459,39 @@
       </c>
       <c r="B45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3494,7 +3499,7 @@
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3508,23 +3513,23 @@
       </c>
       <c r="B46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3532,7 +3537,7 @@
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3544,29 +3549,29 @@
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3574,39 +3579,39 @@
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3620,7 +3625,7 @@
       </c>
       <c r="C48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3628,7 +3633,7 @@
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3640,19 +3645,19 @@
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="I48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3660,21 +3665,21 @@
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3682,7 +3687,7 @@
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3690,19 +3695,19 @@
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="J49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3724,11 +3729,11 @@
       </c>
       <c r="B50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3740,15 +3745,15 @@
       </c>
       <c r="F50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3760,15 +3765,15 @@
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3778,7 +3783,7 @@
       </c>
       <c r="B51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3786,11 +3791,11 @@
       </c>
       <c r="D51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3798,15 +3803,15 @@
       </c>
       <c r="G51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J51" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3828,11 +3833,11 @@
     <row r="52" spans="1:13">
       <c r="A52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3840,15 +3845,15 @@
       </c>
       <c r="D52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3856,37 +3861,37 @@
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3898,15 +3903,15 @@
       </c>
       <c r="E53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3914,7 +3919,7 @@
       </c>
       <c r="I53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J53" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3936,19 +3941,19 @@
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3964,15 +3969,15 @@
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I54" s="4" t="str">
         <f t="shared" ref="B54:M75" ca="1" si="7">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3980,11 +3985,11 @@
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M54" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3994,31 +3999,31 @@
       </c>
       <c r="B55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4026,15 +4031,15 @@
       </c>
       <c r="J55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M55" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4044,19 +4049,19 @@
     <row r="56" spans="1:13">
       <c r="A56" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4064,11 +4069,11 @@
       </c>
       <c r="F56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4098,7 +4103,7 @@
     <row r="57" spans="1:13">
       <c r="A57" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4106,11 +4111,11 @@
       </c>
       <c r="C57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4122,23 +4127,23 @@
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4146,13 +4151,13 @@
       </c>
       <c r="M57" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4176,15 +4181,15 @@
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4196,17 +4201,17 @@
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4214,7 +4219,7 @@
       </c>
       <c r="C59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4226,23 +4231,23 @@
       </c>
       <c r="F59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4254,21 +4259,21 @@
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4276,7 +4281,7 @@
       </c>
       <c r="E60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4288,11 +4293,11 @@
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4300,25 +4305,25 @@
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M60" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4326,11 +4331,11 @@
       </c>
       <c r="D61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4342,7 +4347,7 @@
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4350,11 +4355,11 @@
       </c>
       <c r="J61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4362,17 +4367,17 @@
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4388,23 +4393,23 @@
       </c>
       <c r="F62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="J62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4412,25 +4417,25 @@
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4438,15 +4443,15 @@
       </c>
       <c r="E63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4454,33 +4459,33 @@
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4492,11 +4497,11 @@
       </c>
       <c r="E64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4504,11 +4509,11 @@
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4516,29 +4521,29 @@
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4550,19 +4555,19 @@
       </c>
       <c r="F65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4570,41 +4575,41 @@
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4612,11 +4617,11 @@
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4628,29 +4633,29 @@
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4658,35 +4663,35 @@
       </c>
       <c r="F67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="J67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M67" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4696,19 +4701,19 @@
       </c>
       <c r="B68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4716,23 +4721,23 @@
       </c>
       <c r="G68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4746,23 +4751,23 @@
     <row r="69" spans="1:13">
       <c r="A69" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="C69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4770,15 +4775,15 @@
       </c>
       <c r="G69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4786,11 +4791,11 @@
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4800,19 +4805,19 @@
     <row r="70" spans="1:13">
       <c r="A70" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4824,19 +4829,19 @@
       </c>
       <c r="G70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4844,25 +4849,25 @@
       </c>
       <c r="L70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4870,11 +4875,11 @@
       </c>
       <c r="E71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4882,7 +4887,7 @@
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4894,7 +4899,7 @@
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4908,7 +4913,7 @@
     <row r="72" spans="1:13">
       <c r="A72" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4924,7 +4929,7 @@
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4936,11 +4941,11 @@
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4952,7 +4957,7 @@
       </c>
       <c r="L72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4962,39 +4967,39 @@
     <row r="73" spans="1:13">
       <c r="A73" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5002,25 +5007,25 @@
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5028,7 +5033,7 @@
       </c>
       <c r="D74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5040,11 +5045,11 @@
       </c>
       <c r="G74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5052,7 +5057,7 @@
       </c>
       <c r="J74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5060,7 +5065,7 @@
       </c>
       <c r="L74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5074,31 +5079,31 @@
       </c>
       <c r="B75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5106,7 +5111,7 @@
       </c>
       <c r="J75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5118,29 +5123,29 @@
       </c>
       <c r="M75" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5148,7 +5153,7 @@
       </c>
       <c r="G76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5156,11 +5161,11 @@
       </c>
       <c r="I76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5172,17 +5177,17 @@
       </c>
       <c r="M76" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5198,15 +5203,15 @@
       </c>
       <c r="F77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5214,11 +5219,11 @@
       </c>
       <c r="J77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5226,17 +5231,17 @@
       </c>
       <c r="M77" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5248,19 +5253,19 @@
       </c>
       <c r="E78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5268,7 +5273,7 @@
       </c>
       <c r="J78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5276,7 +5281,7 @@
       </c>
       <c r="L78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5286,15 +5291,15 @@
     <row r="79" spans="1:13">
       <c r="A79" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5314,7 +5319,7 @@
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5322,29 +5327,29 @@
       </c>
       <c r="J79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5352,7 +5357,7 @@
       </c>
       <c r="D80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5364,15 +5369,15 @@
       </c>
       <c r="G80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5388,29 +5393,29 @@
       </c>
       <c r="M80" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="F81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5418,7 +5423,7 @@
       </c>
       <c r="G81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5430,19 +5435,19 @@
       </c>
       <c r="J81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -5480,15 +5485,15 @@
       </c>
       <c r="I82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L82" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5506,27 +5511,27 @@
       </c>
       <c r="B83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5538,11 +5543,11 @@
       </c>
       <c r="J83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5550,57 +5555,57 @@
       </c>
       <c r="M83" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M84" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5610,11 +5615,11 @@
     <row r="85" spans="1:13">
       <c r="A85" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5630,11 +5635,11 @@
       </c>
       <c r="F85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5642,41 +5647,41 @@
       </c>
       <c r="I85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5684,11 +5689,11 @@
       </c>
       <c r="F86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5696,7 +5701,7 @@
       </c>
       <c r="I86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5704,29 +5709,29 @@
       </c>
       <c r="K86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5738,7 +5743,7 @@
       </c>
       <c r="F87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5746,15 +5751,15 @@
       </c>
       <c r="H87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5762,11 +5767,11 @@
       </c>
       <c r="L87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -5776,7 +5781,7 @@
       </c>
       <c r="B88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5784,7 +5789,7 @@
       </c>
       <c r="D88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5792,15 +5797,15 @@
       </c>
       <c r="F88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I88" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5826,31 +5831,31 @@
     <row r="89" spans="1:13">
       <c r="A89" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5858,7 +5863,7 @@
       </c>
       <c r="I89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5866,11 +5871,11 @@
       </c>
       <c r="K89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M89" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5880,15 +5885,15 @@
     <row r="90" spans="1:13">
       <c r="A90" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5896,7 +5901,7 @@
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5904,15 +5909,15 @@
       </c>
       <c r="G90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5920,29 +5925,29 @@
       </c>
       <c r="K90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M90" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5950,23 +5955,23 @@
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5978,11 +5983,11 @@
       </c>
       <c r="L91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5992,11 +5997,11 @@
       </c>
       <c r="B92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6008,7 +6013,7 @@
       </c>
       <c r="F92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6016,7 +6021,7 @@
       </c>
       <c r="H92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6024,11 +6029,11 @@
       </c>
       <c r="J92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6036,25 +6041,25 @@
       </c>
       <c r="M92" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6062,35 +6067,35 @@
       </c>
       <c r="F93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -6100,11 +6105,11 @@
       </c>
       <c r="B94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6112,7 +6117,7 @@
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6124,11 +6129,11 @@
       </c>
       <c r="H94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6136,33 +6141,33 @@
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6170,31 +6175,31 @@
       </c>
       <c r="F95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M95" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6204,11 +6209,11 @@
     <row r="96" spans="1:13">
       <c r="A96" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6216,31 +6221,31 @@
       </c>
       <c r="D96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="G96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -6248,25 +6253,25 @@
       </c>
       <c r="L96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M96" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B97" s="4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C97" s="4" t="str">
         <f t="shared" ref="B97:M118" ca="1" si="10">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6274,7 +6279,7 @@
       </c>
       <c r="E97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6282,15 +6287,15 @@
       </c>
       <c r="G97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6298,15 +6303,15 @@
       </c>
       <c r="K97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -6320,11 +6325,11 @@
       </c>
       <c r="C98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6332,15 +6337,15 @@
       </c>
       <c r="F98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6348,15 +6353,15 @@
       </c>
       <c r="J98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="L98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6366,7 +6371,7 @@
     <row r="99" spans="1:13">
       <c r="A99" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6374,27 +6379,27 @@
       </c>
       <c r="C99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6406,21 +6411,21 @@
       </c>
       <c r="K99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M99" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6428,7 +6433,7 @@
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6436,19 +6441,19 @@
       </c>
       <c r="E100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6456,33 +6461,33 @@
       </c>
       <c r="J100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="L100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6498,7 +6503,7 @@
       </c>
       <c r="G101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6506,7 +6511,7 @@
       </c>
       <c r="I101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6514,37 +6519,37 @@
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="B102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6552,23 +6557,23 @@
       </c>
       <c r="G102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6576,7 +6581,7 @@
       </c>
       <c r="M102" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -6586,11 +6591,11 @@
       </c>
       <c r="B103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6598,11 +6603,11 @@
       </c>
       <c r="E103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6610,11 +6615,11 @@
       </c>
       <c r="H103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6626,11 +6631,11 @@
       </c>
       <c r="L103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M103" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -6640,35 +6645,35 @@
       </c>
       <c r="B104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6676,25 +6681,25 @@
       </c>
       <c r="K104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6702,7 +6707,7 @@
       </c>
       <c r="D105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6710,7 +6715,7 @@
       </c>
       <c r="F105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6718,15 +6723,15 @@
       </c>
       <c r="H105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="I105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K105" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6748,7 +6753,7 @@
       </c>
       <c r="B106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6756,23 +6761,23 @@
       </c>
       <c r="D106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6788,11 +6793,11 @@
       </c>
       <c r="L106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M106" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -6802,39 +6807,39 @@
       </c>
       <c r="B107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6846,13 +6851,13 @@
       </c>
       <c r="M107" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6860,11 +6865,11 @@
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6876,11 +6881,11 @@
       </c>
       <c r="G108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6888,7 +6893,7 @@
       </c>
       <c r="J108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6896,21 +6901,21 @@
       </c>
       <c r="L108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M108" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="B109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6918,15 +6923,15 @@
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6938,11 +6943,11 @@
       </c>
       <c r="I109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6954,7 +6959,7 @@
       </c>
       <c r="M109" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -6964,7 +6969,7 @@
       </c>
       <c r="B110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6980,15 +6985,15 @@
       </c>
       <c r="F110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6996,7 +7001,7 @@
       </c>
       <c r="J110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7004,7 +7009,7 @@
       </c>
       <c r="L110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M110" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7022,15 +7027,15 @@
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="D111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7038,7 +7043,7 @@
       </c>
       <c r="G111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7046,7 +7051,7 @@
       </c>
       <c r="I111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7054,21 +7059,21 @@
       </c>
       <c r="K111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="M111" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7076,23 +7081,23 @@
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7100,7 +7105,7 @@
       </c>
       <c r="I112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7108,29 +7113,29 @@
       </c>
       <c r="K112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="M112" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7146,15 +7151,15 @@
       </c>
       <c r="G113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7162,7 +7167,7 @@
       </c>
       <c r="K113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L113" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7176,27 +7181,27 @@
     <row r="114" spans="1:13">
       <c r="A114" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7204,15 +7209,15 @@
       </c>
       <c r="H114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7224,21 +7229,21 @@
       </c>
       <c r="M114" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7250,15 +7255,15 @@
       </c>
       <c r="F115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7270,15 +7275,15 @@
       </c>
       <c r="K115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -7288,15 +7293,15 @@
       </c>
       <c r="B116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7304,45 +7309,45 @@
       </c>
       <c r="F116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="B117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7350,31 +7355,31 @@
       </c>
       <c r="D117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="F117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7382,7 +7387,7 @@
       </c>
       <c r="L117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M117" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7392,19 +7397,19 @@
     <row r="118" spans="1:13">
       <c r="A118" s="4" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E118" s="4" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7412,15 +7417,15 @@
       </c>
       <c r="F118" s="4" t="str">
         <f t="shared" ref="B118:M129" ca="1" si="11">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7428,33 +7433,33 @@
       </c>
       <c r="J118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="4" t="str">
         <f t="shared" ref="A119:A129" ca="1" si="12">MID(REPT("1", INDEX($O$2:$O$14, COLUMN())) &amp; REPT("X", INDEX($P$2:$P$14, COLUMN())) &amp; REPT("2", INDEX($Q$2:$Q$14, COLUMN())), RANDBETWEEN(1, 10), 1)</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7462,15 +7467,15 @@
       </c>
       <c r="E119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7478,7 +7483,7 @@
       </c>
       <c r="I119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7486,15 +7491,15 @@
       </c>
       <c r="K119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="M119" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -7504,27 +7509,27 @@
       </c>
       <c r="B120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="G120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7532,11 +7537,11 @@
       </c>
       <c r="I120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="K120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7544,7 +7549,7 @@
       </c>
       <c r="L120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7562,7 +7567,7 @@
       </c>
       <c r="C121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7578,7 +7583,7 @@
       </c>
       <c r="G121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7586,19 +7591,19 @@
       </c>
       <c r="I121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="J121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="M121" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7612,7 +7617,7 @@
       </c>
       <c r="B122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7620,7 +7625,7 @@
       </c>
       <c r="D122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7632,7 +7637,7 @@
       </c>
       <c r="G122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7662,11 +7667,11 @@
     <row r="123" spans="1:13">
       <c r="A123" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7678,19 +7683,19 @@
       </c>
       <c r="E123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="I123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7702,7 +7707,7 @@
       </c>
       <c r="K123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="L123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7710,13 +7715,13 @@
       </c>
       <c r="M123" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7724,7 +7729,7 @@
       </c>
       <c r="C124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7736,11 +7741,11 @@
       </c>
       <c r="F124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7748,7 +7753,7 @@
       </c>
       <c r="I124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7756,25 +7761,25 @@
       </c>
       <c r="K124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7782,7 +7787,7 @@
       </c>
       <c r="D125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7790,27 +7795,27 @@
       </c>
       <c r="F125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="G125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="J125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="L125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7818,7 +7823,7 @@
       </c>
       <c r="M125" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -7828,19 +7833,19 @@
       </c>
       <c r="B126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="D126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7848,19 +7853,19 @@
       </c>
       <c r="G126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="H126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="K126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7872,13 +7877,13 @@
       </c>
       <c r="M126" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="B127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7886,7 +7891,7 @@
       </c>
       <c r="C127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="D127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7898,7 +7903,7 @@
       </c>
       <c r="F127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="G127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7910,15 +7915,15 @@
       </c>
       <c r="I127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="K127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7932,11 +7937,11 @@
     <row r="128" spans="1:13">
       <c r="A128" s="4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7948,7 +7953,7 @@
       </c>
       <c r="E128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7960,7 +7965,7 @@
       </c>
       <c r="H128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7976,7 +7981,7 @@
       </c>
       <c r="L128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7990,7 +7995,7 @@
       </c>
       <c r="B129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7998,11 +8003,11 @@
       </c>
       <c r="D129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -8010,19 +8015,19 @@
       </c>
       <c r="G129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="I129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="J129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="K129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -8030,11 +8035,11 @@
       </c>
       <c r="L129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M129" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>X</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -8044,159 +8049,159 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:M131" ca="1" si="13">COUNTIF(B$2:B$129, "1")</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="K131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="M131" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="2">
         <f ca="1">COUNTIF(A$2:A$129, "X")</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B132" s="2">
         <f t="shared" ref="B132:M132" ca="1" si="14">COUNTIF(B$2:B$129, "X")</f>
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M132" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="2">
         <f ca="1">COUNTIF(A$2:A$129, "2")</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" ref="B133:M133" ca="1" si="15">COUNTIF(B$2:B$129, "2")</f>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8209,7 +8214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F724C74-DD46-4DCC-AF5A-F8F926BD9338}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -8475,4 +8480,265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ABCA92-57BB-4499-BBCE-79C683F0139D}">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="str">
+        <f ca="1">LOOKUP(RANDBETWEEN(0, 100), {0;51;71}, {"1";"X";"2"})</f>
+        <v>X</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>